--- a/Pandas/source/Upgarde/part4/서울지역 대학교 위치.xlsx
+++ b/Pandas/source/Upgarde/part4/서울지역 대학교 위치.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>위도</t>
   </si>
@@ -103,7 +103,7 @@
     <t>성공회대학교</t>
   </si>
   <si>
-    <t xml:space="preserve">성균관대학교 서울캠퍼스  </t>
+    <t>성균관대학교 서울캠퍼스  </t>
   </si>
   <si>
     <t>성신여자대학교</t>
@@ -161,17 +161,21 @@
   </si>
   <si>
     <t>홍익대학교</t>
+  </si>
+  <si>
+    <t>대학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,8 +183,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,15 +237,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,14 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,62 +555,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>37.592573</v>
+        <v>37.592573000000002</v>
       </c>
       <c r="C2">
-        <v>127.046737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>127.04673699999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>37.5483449</v>
+        <v>37.548344899999996</v>
       </c>
       <c r="C3">
         <v>126.8547974</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>37.5859218</v>
+        <v>37.585921800000001</v>
       </c>
       <c r="C4">
         <v>127.0043275</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37.4996227</v>
+        <v>37.499622700000003</v>
       </c>
       <c r="C5">
         <v>127.0060653</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37.5676455</v>
+        <v>37.567645499999998</v>
       </c>
       <c r="C6">
-        <v>126.96161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>126.96160999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -595,32 +618,32 @@
         <v>37.5407625</v>
       </c>
       <c r="C7">
-        <v>127.0793428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>127.07934280000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>37.30048499999999</v>
+        <v>37.300484999999988</v>
       </c>
       <c r="C8">
         <v>127.035833</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>37.5961951</v>
+        <v>37.596195100000003</v>
       </c>
       <c r="C9">
         <v>127.052544</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -628,43 +651,43 @@
         <v>33.8477818</v>
       </c>
       <c r="C10">
-        <v>-117.9777482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-117.97774819999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>37.6194965</v>
+        <v>37.619496499999997</v>
       </c>
       <c r="C11">
         <v>127.0596958</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>37.6096409</v>
+        <v>37.609640900000002</v>
       </c>
       <c r="C12">
         <v>126.997697</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>37.6511988</v>
+        <v>37.651198800000003</v>
       </c>
       <c r="C13">
         <v>127.0161604</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -675,84 +698,84 @@
         <v>127.0020518</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>37.6063202</v>
+        <v>37.606320199999999</v>
       </c>
       <c r="C15">
         <v>127.041808</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>37.5802046</v>
+        <v>37.580204600000002</v>
       </c>
       <c r="C16">
         <v>126.9234451</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>37.6429515</v>
+        <v>37.642951500000002</v>
       </c>
       <c r="C17">
         <v>127.1054757</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>37.602638</v>
+        <v>37.602637999999999</v>
       </c>
       <c r="C18">
         <v>126.955252</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>37.5509442</v>
+        <v>37.550944200000004</v>
       </c>
       <c r="C19">
-        <v>126.9410023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>126.94100229999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>37.615095</v>
+        <v>37.615094999999997</v>
       </c>
       <c r="C20">
-        <v>127.0131113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>127.01311130000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>37.6316684</v>
+        <v>37.631668400000002</v>
       </c>
       <c r="C21">
         <v>127.0774813</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -760,21 +783,21 @@
         <v>37.4899615</v>
       </c>
       <c r="C22">
-        <v>127.0164124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>127.01641239999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>37.6009228</v>
+        <v>37.600922799999999</v>
       </c>
       <c r="C23">
-        <v>126.9123818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>126.91238180000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -782,98 +805,98 @@
         <v>37.459882</v>
       </c>
       <c r="C24">
-        <v>126.9519053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>126.95190530000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>37.5838657</v>
+        <v>37.583865699999997</v>
       </c>
       <c r="C25">
         <v>127.0587771</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>37.6281126</v>
+        <v>37.628112600000001</v>
       </c>
       <c r="C26">
         <v>127.0904568</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>37.4965411</v>
+        <v>37.496541100000002</v>
       </c>
       <c r="C27">
         <v>126.8512616</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>37.4872325</v>
+        <v>37.487232499999998</v>
       </c>
       <c r="C28">
-        <v>126.8253202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>126.82532019999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>37.588227</v>
+        <v>37.588227000000003</v>
       </c>
       <c r="C29">
         <v>126.993606</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>37.5913103</v>
+        <v>37.591310300000004</v>
       </c>
       <c r="C30">
         <v>127.0221312</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>37.5502596</v>
+        <v>37.550259599999997</v>
       </c>
       <c r="C31">
         <v>127.073139</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>37.5463644</v>
+        <v>37.546364400000002</v>
       </c>
       <c r="C32">
         <v>126.9648311</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -881,153 +904,153 @@
         <v>37.4963111</v>
       </c>
       <c r="C33">
-        <v>126.9574596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>126.95745960000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>37.565784</v>
+        <v>37.565784000000001</v>
       </c>
       <c r="C34">
-        <v>126.938572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>126.93857199999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>37.6238188</v>
+        <v>37.623818800000002</v>
       </c>
       <c r="C35">
         <v>127.0988783</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>37.5643079</v>
+        <v>37.564307900000003</v>
       </c>
       <c r="C36">
         <v>126.9501786</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>37.5505112</v>
+        <v>37.550511200000003</v>
       </c>
       <c r="C37">
-        <v>127.1034577</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>127.10345770000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37.5050881</v>
+        <v>37.505088100000002</v>
       </c>
       <c r="C38">
         <v>126.9571012</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>37.4886232</v>
+        <v>37.488623199999999</v>
       </c>
       <c r="C39">
         <v>126.9668169</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>37.5624515</v>
+        <v>37.562451500000002</v>
       </c>
       <c r="C40">
         <v>126.9534165</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>37.5786127</v>
+        <v>37.578612700000001</v>
       </c>
       <c r="C41">
-        <v>127.0032905</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>127.00329050000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>37.6487485</v>
+        <v>37.648748500000004</v>
       </c>
       <c r="C42">
         <v>127.0643199</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>37.6049973</v>
+        <v>37.604997300000001</v>
       </c>
       <c r="C43">
-        <v>127.0567397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>127.05673969999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>37.597319</v>
+        <v>37.597318999999999</v>
       </c>
       <c r="C44">
-        <v>127.057843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>127.05784300000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>37.5196266</v>
+        <v>37.519626600000002</v>
       </c>
       <c r="C45">
         <v>127.1309837</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>37.5817849</v>
+        <v>37.581784900000002</v>
       </c>
       <c r="C46">
         <v>127.010369</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1038,18 +1061,20 @@
         <v>127.0453219</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>37.5514642</v>
+        <v>37.551464199999998</v>
       </c>
       <c r="C48">
-        <v>126.9250106</v>
+        <v>126.92501059999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>